--- a/data/03 application country numbers per year.xlsx
+++ b/data/03 application country numbers per year.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>project_year</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>428</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/03 application country numbers per year.xlsx
+++ b/data/03 application country numbers per year.xlsx
@@ -377,7 +377,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3">
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
@@ -401,7 +401,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6">

--- a/data/03 application country numbers per year.xlsx
+++ b/data/03 application country numbers per year.xlsx
@@ -377,7 +377,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3">
@@ -385,7 +385,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data/03 application country numbers per year.xlsx
+++ b/data/03 application country numbers per year.xlsx
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">

--- a/data/03 application country numbers per year.xlsx
+++ b/data/03 application country numbers per year.xlsx
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5">
@@ -401,7 +401,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>429</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6">
@@ -409,7 +409,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
